--- a/it_agent.xlsx
+++ b/it_agent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F8CEE9-0406-4460-84B0-F098116D7C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09056617-0759-4C06-B5B8-49FD790F8869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="456">
   <si>
     <t>ABDALAH ATHUMANI</t>
   </si>
@@ -1390,6 +1390,9 @@
   </si>
   <si>
     <t>DANIEL OTIENO MUSSA</t>
+  </si>
+  <si>
+    <t>ROBERT JOSEPH SHAO</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1442,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1475,12 +1478,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1520,6 +1534,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1804,7 +1819,7 @@
   <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,6 +1891,9 @@
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="17" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1883,6 +1901,9 @@
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
